--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N2">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O2">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P2">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q2">
-        <v>48.99748164231249</v>
+        <v>182.8754962805625</v>
       </c>
       <c r="R2">
-        <v>195.98992656925</v>
+        <v>731.5019851222499</v>
       </c>
       <c r="S2">
-        <v>0.0016993008762086</v>
+        <v>0.005831502909796631</v>
       </c>
       <c r="T2">
-        <v>0.001153092560196649</v>
+        <v>0.003729438421594892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P3">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q3">
-        <v>495.7488178938038</v>
+        <v>519.146025169975</v>
       </c>
       <c r="R3">
-        <v>2974.492907362823</v>
+        <v>3114.87615101985</v>
       </c>
       <c r="S3">
-        <v>0.0171932591714842</v>
+        <v>0.01655444068757855</v>
       </c>
       <c r="T3">
-        <v>0.01750021392362675</v>
+        <v>0.01588066612585013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N4">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O4">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P4">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q4">
-        <v>174.107118880288</v>
+        <v>336.5159594904499</v>
       </c>
       <c r="R4">
-        <v>1044.642713281728</v>
+        <v>2019.0957569427</v>
       </c>
       <c r="S4">
-        <v>0.006038277269579782</v>
+        <v>0.0107307640272971</v>
       </c>
       <c r="T4">
-        <v>0.006146079861523832</v>
+        <v>0.01029401621044525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N5">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O5">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P5">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q5">
-        <v>4591.521679354494</v>
+        <v>3979.876466840437</v>
       </c>
       <c r="R5">
-        <v>18366.08671741798</v>
+        <v>15919.50586736175</v>
       </c>
       <c r="S5">
-        <v>0.159240364021485</v>
+        <v>0.126909627965712</v>
       </c>
       <c r="T5">
-        <v>0.1080555430806712</v>
+        <v>0.08116289229840168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H6">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I6">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J6">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N6">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O6">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P6">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q6">
-        <v>59.11953517251284</v>
+        <v>312.4904714620999</v>
       </c>
       <c r="R6">
-        <v>354.717211035077</v>
+        <v>1874.9428287726</v>
       </c>
       <c r="S6">
-        <v>0.002050347784261239</v>
+        <v>0.009964643326622894</v>
       </c>
       <c r="T6">
-        <v>0.002086953060180522</v>
+        <v>0.009559077030733892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H7">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I7">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J7">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N7">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O7">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P7">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q7">
-        <v>91.21263516287817</v>
+        <v>352.1602796975</v>
       </c>
       <c r="R7">
-        <v>547.275810977269</v>
+        <v>2112.961678185</v>
       </c>
       <c r="S7">
-        <v>0.003163381170997238</v>
+        <v>0.01122962746534481</v>
       </c>
       <c r="T7">
-        <v>0.003219857658299094</v>
+        <v>0.0107725756406031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N8">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O8">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P8">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q8">
-        <v>34.76908181041666</v>
+        <v>123.9216350144583</v>
       </c>
       <c r="R8">
-        <v>208.6144908625</v>
+        <v>743.52981008675</v>
       </c>
       <c r="S8">
-        <v>0.001205840161678583</v>
+        <v>0.003951592148053019</v>
       </c>
       <c r="T8">
-        <v>0.00122736827128595</v>
+        <v>0.003790760240897033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P9">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q9">
         <v>351.7881047968389</v>
@@ -1013,10 +1013,10 @@
         <v>3166.09294317155</v>
       </c>
       <c r="S9">
-        <v>0.01220050122340976</v>
+        <v>0.0112177596150297</v>
       </c>
       <c r="T9">
-        <v>0.01862747887898348</v>
+        <v>0.01614178622718446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N10">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O10">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P10">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q10">
-        <v>123.5480775178667</v>
+        <v>228.0327805346777</v>
       </c>
       <c r="R10">
-        <v>1111.9326976608</v>
+        <v>2052.2950248121</v>
       </c>
       <c r="S10">
-        <v>0.004284819328320282</v>
+        <v>0.00727147075613065</v>
       </c>
       <c r="T10">
-        <v>0.006541975618624597</v>
+        <v>0.01046327702952597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N11">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O11">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P11">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q11">
-        <v>3258.187718078883</v>
+        <v>2696.877432774208</v>
       </c>
       <c r="R11">
-        <v>19549.1263084733</v>
+        <v>16181.26459664525</v>
       </c>
       <c r="S11">
-        <v>0.1129984860161118</v>
+        <v>0.08599757166186971</v>
       </c>
       <c r="T11">
-        <v>0.1150158709645738</v>
+        <v>0.08249742464695654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J12">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N12">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O12">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P12">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q12">
-        <v>41.95178784927222</v>
+        <v>211.7524268566444</v>
       </c>
       <c r="R12">
-        <v>377.56609064345</v>
+        <v>1905.7718417098</v>
       </c>
       <c r="S12">
-        <v>0.001454946406658238</v>
+        <v>0.006752325590283407</v>
       </c>
       <c r="T12">
-        <v>0.002221382791067403</v>
+        <v>0.0097162535082914</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J13">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N13">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O13">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P13">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q13">
-        <v>64.72535868829443</v>
+        <v>238.6338166394445</v>
       </c>
       <c r="R13">
-        <v>582.52822819465</v>
+        <v>2147.704349755</v>
       </c>
       <c r="S13">
-        <v>0.002244765548051208</v>
+        <v>0.007609514803305586</v>
       </c>
       <c r="T13">
-        <v>0.003427262705761814</v>
+        <v>0.01094970524087391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N14">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O14">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P14">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q14">
-        <v>73.12848216333332</v>
+        <v>240.9169718342067</v>
       </c>
       <c r="R14">
-        <v>438.7708929799999</v>
+        <v>1445.50183100524</v>
       </c>
       <c r="S14">
-        <v>0.00253619756874697</v>
+        <v>0.007682319670182593</v>
       </c>
       <c r="T14">
-        <v>0.002581476819663539</v>
+        <v>0.007369645163896265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P15">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q15">
-        <v>739.9024882848977</v>
+        <v>683.9138696407671</v>
       </c>
       <c r="R15">
-        <v>6659.12239456408</v>
+        <v>6155.224826766904</v>
       </c>
       <c r="S15">
-        <v>0.02566084836420807</v>
+        <v>0.0218085298576128</v>
       </c>
       <c r="T15">
-        <v>0.03917846506206852</v>
+        <v>0.03138136659829142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N16">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O16">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P16">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q16">
-        <v>259.8539539336533</v>
+        <v>443.3202237764141</v>
       </c>
       <c r="R16">
-        <v>2338.68558540288</v>
+        <v>3989.882013987727</v>
       </c>
       <c r="S16">
-        <v>0.009012096883452919</v>
+        <v>0.01413652035129777</v>
       </c>
       <c r="T16">
-        <v>0.01375948752250979</v>
+        <v>0.02034173465449921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H17">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I17">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J17">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N17">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O17">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P17">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q17">
-        <v>6852.821818117145</v>
+        <v>5243.019464972085</v>
       </c>
       <c r="R17">
-        <v>41116.93090870287</v>
+        <v>31458.11678983251</v>
       </c>
       <c r="S17">
-        <v>0.2376654009493348</v>
+        <v>0.1671885183523891</v>
       </c>
       <c r="T17">
-        <v>0.2419084896804264</v>
+        <v>0.1603838565214745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H18">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I18">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J18">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N18">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O18">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P18">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q18">
-        <v>88.23559351332443</v>
+        <v>411.6694671668515</v>
       </c>
       <c r="R18">
-        <v>794.1203416199199</v>
+        <v>3705.025204501664</v>
       </c>
       <c r="S18">
-        <v>0.003060133222040868</v>
+        <v>0.01312724637517817</v>
       </c>
       <c r="T18">
-        <v>0.00467214960407266</v>
+        <v>0.01888944067368011</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H19">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I19">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J19">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N19">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O19">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P19">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q19">
-        <v>136.1343754822489</v>
+        <v>463.9297768731556</v>
       </c>
       <c r="R19">
-        <v>1225.20937934024</v>
+        <v>4175.3679918584</v>
       </c>
       <c r="S19">
-        <v>0.00472132966399899</v>
+        <v>0.0147937142963459</v>
       </c>
       <c r="T19">
-        <v>0.007208430783819907</v>
+        <v>0.02128740335616702</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N20">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O20">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P20">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q20">
-        <v>17.8824123519375</v>
+        <v>60.99886887662375</v>
       </c>
       <c r="R20">
-        <v>71.52964940774999</v>
+        <v>243.995475506495</v>
       </c>
       <c r="S20">
-        <v>0.0006201869557338476</v>
+        <v>0.001945121618713785</v>
       </c>
       <c r="T20">
-        <v>0.0004208395197107645</v>
+        <v>0.001243969421213754</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P21">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q21">
-        <v>180.9314374416115</v>
+        <v>173.1632775370878</v>
       </c>
       <c r="R21">
-        <v>1085.588624649669</v>
+        <v>1038.979665222527</v>
       </c>
       <c r="S21">
-        <v>0.006274954137902118</v>
+        <v>0.005521801320381593</v>
       </c>
       <c r="T21">
-        <v>0.006386982170103256</v>
+        <v>0.005297061062779103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H22">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I22">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J22">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N22">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O22">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P22">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q22">
-        <v>63.543169748064</v>
+        <v>112.2462730400856</v>
       </c>
       <c r="R22">
-        <v>381.259018488384</v>
+        <v>673.4776382405139</v>
       </c>
       <c r="S22">
-        <v>0.002203765589795336</v>
+        <v>0.003579290179165785</v>
       </c>
       <c r="T22">
-        <v>0.00224310986499348</v>
+        <v>0.003433611160630546</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N23">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O23">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P23">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q23">
-        <v>1675.749063849283</v>
+        <v>1327.504054307596</v>
       </c>
       <c r="R23">
-        <v>6702.996255397133</v>
+        <v>5310.016217230384</v>
       </c>
       <c r="S23">
-        <v>0.05811731046286549</v>
+        <v>0.04233122486560483</v>
       </c>
       <c r="T23">
-        <v>0.03943659374959483</v>
+        <v>0.02707221429689132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H24">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I24">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J24">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N24">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O24">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P24">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q24">
-        <v>21.5766172173385</v>
+        <v>104.2324733580887</v>
       </c>
       <c r="R24">
-        <v>129.459703304031</v>
+        <v>625.3948401485319</v>
       </c>
       <c r="S24">
-        <v>0.0007483071234293422</v>
+        <v>0.003323747489660806</v>
       </c>
       <c r="T24">
-        <v>0.0007616668026680356</v>
+        <v>0.003188469194827051</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H25">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I25">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J25">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N25">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O25">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P25">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q25">
-        <v>33.2895058892345</v>
+        <v>117.4644999561167</v>
       </c>
       <c r="R25">
-        <v>199.737035335407</v>
+        <v>704.7869997367001</v>
       </c>
       <c r="S25">
-        <v>0.001154526408909894</v>
+        <v>0.00374568811690879</v>
       </c>
       <c r="T25">
-        <v>0.001175138403654714</v>
+        <v>0.003593236613594923</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H26">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I26">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J26">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N26">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O26">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P26">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q26">
-        <v>42.78657091108333</v>
+        <v>118.3169333218075</v>
       </c>
       <c r="R26">
-        <v>256.7194254665</v>
+        <v>709.9015999308451</v>
       </c>
       <c r="S26">
-        <v>0.00148389784540228</v>
+        <v>0.00377287036796777</v>
       </c>
       <c r="T26">
-        <v>0.001510390175378656</v>
+        <v>0.003619312532544007</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H27">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I27">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J27">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P27">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q27">
-        <v>432.9077993384371</v>
+        <v>335.8775062465597</v>
       </c>
       <c r="R27">
-        <v>3896.170194045934</v>
+        <v>3022.897556219037</v>
       </c>
       <c r="S27">
-        <v>0.01501384516256586</v>
+        <v>0.01071040513818817</v>
       </c>
       <c r="T27">
-        <v>0.02292283558985312</v>
+        <v>0.01541172890846564</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H28">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I28">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J28">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N28">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O28">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P28">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q28">
-        <v>152.0373361732694</v>
+        <v>217.7193618092593</v>
       </c>
       <c r="R28">
-        <v>1368.336025559424</v>
+        <v>1959.474256283334</v>
       </c>
       <c r="S28">
-        <v>0.005272866480397839</v>
+        <v>0.006942598203325875</v>
       </c>
       <c r="T28">
-        <v>0.008050506056820868</v>
+        <v>0.00999004613266751</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H29">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I29">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J29">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N29">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O29">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P29">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q29">
-        <v>4009.501332285321</v>
+        <v>2574.903626420072</v>
       </c>
       <c r="R29">
-        <v>24057.00799371192</v>
+        <v>15449.42175852043</v>
       </c>
       <c r="S29">
-        <v>0.1390550881135129</v>
+        <v>0.08210809154485134</v>
       </c>
       <c r="T29">
-        <v>0.1415376668776855</v>
+        <v>0.07876624844431698</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N30">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O30">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P30">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q30">
-        <v>51.62555501025178</v>
+        <v>202.1753325495213</v>
       </c>
       <c r="R30">
-        <v>464.629995092266</v>
+        <v>1819.577992945692</v>
       </c>
       <c r="S30">
-        <v>0.0017904461193352</v>
+        <v>0.006446932826051596</v>
       </c>
       <c r="T30">
-        <v>0.002733616976971491</v>
+        <v>0.009276808834423177</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H31">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I31">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J31">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N31">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O31">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P31">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q31">
-        <v>79.65054022313356</v>
+        <v>227.8409364786334</v>
       </c>
       <c r="R31">
-        <v>716.8548620082021</v>
+        <v>2050.5684283077</v>
       </c>
       <c r="S31">
-        <v>0.002762391622078296</v>
+        <v>0.007265353265303263</v>
       </c>
       <c r="T31">
-        <v>0.004217563742136447</v>
+        <v>0.01045447427099207</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H32">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I32">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J32">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N32">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O32">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P32">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q32">
-        <v>41.15498095049999</v>
+        <v>282.1020026338392</v>
       </c>
       <c r="R32">
-        <v>246.9298857029999</v>
+        <v>1692.612015803035</v>
       </c>
       <c r="S32">
-        <v>0.001427312034117683</v>
+        <v>0.008995620969880276</v>
       </c>
       <c r="T32">
-        <v>0.001452794126098783</v>
+        <v>0.008629494400529977</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H33">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I33">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J33">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.596253</v>
       </c>
       <c r="O33">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P33">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q33">
-        <v>416.399628568532</v>
+        <v>800.8297248044902</v>
       </c>
       <c r="R33">
-        <v>3747.596657116788</v>
+        <v>7207.467523240412</v>
       </c>
       <c r="S33">
-        <v>0.01444131881807561</v>
+        <v>0.02553672288213164</v>
       </c>
       <c r="T33">
-        <v>0.02204871392924538</v>
+        <v>0.03674604696948014</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H34">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I34">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J34">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N34">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O34">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P34">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q34">
-        <v>146.239662135552</v>
+        <v>519.1063210834002</v>
       </c>
       <c r="R34">
-        <v>1316.156959219968</v>
+        <v>4671.956889750601</v>
       </c>
       <c r="S34">
-        <v>0.005071795073418482</v>
+        <v>0.01655317461037794</v>
       </c>
       <c r="T34">
-        <v>0.007743514293278493</v>
+        <v>0.02381917736799985</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H35">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I35">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J35">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N35">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O35">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P35">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q35">
-        <v>3856.606113495827</v>
+        <v>6139.319615617134</v>
       </c>
       <c r="R35">
-        <v>23139.63668097496</v>
+        <v>36835.9176937028</v>
       </c>
       <c r="S35">
-        <v>0.1337524690696654</v>
+        <v>0.1957695860341905</v>
       </c>
       <c r="T35">
-        <v>0.13614037909779</v>
+        <v>0.1878016595110723</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H36">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I36">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J36">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N36">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O36">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P36">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q36">
-        <v>49.65690607506799</v>
+        <v>482.0448315733196</v>
       </c>
       <c r="R36">
-        <v>446.912154675612</v>
+        <v>4338.403484159876</v>
       </c>
       <c r="S36">
-        <v>0.001722170633567866</v>
+        <v>0.01537136409822567</v>
       </c>
       <c r="T36">
-        <v>0.00262937534412422</v>
+        <v>0.02211861207663433</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N37">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O37">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P37">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q37">
-        <v>76.613208204796</v>
+        <v>543.2391007614557</v>
       </c>
       <c r="R37">
-        <v>689.518873843164</v>
+        <v>4889.151906853101</v>
       </c>
       <c r="S37">
-        <v>0.002657052719198024</v>
+        <v>0.01732271660904001</v>
       </c>
       <c r="T37">
-        <v>0.004056734432536233</v>
+        <v>0.02492650921157051</v>
       </c>
     </row>
   </sheetData>
